--- a/data/trans_bre/P37_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,17 +652,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,22 +672,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>-11,04%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 15,13</t>
+          <t>-8,61; 15,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 9,13</t>
+          <t>-19,36; 2,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 8,86</t>
+          <t>-16,57; 8,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 15,69</t>
+          <t>-11,45; 16,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 25,11</t>
+          <t>-1,99; 21,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 14,35</t>
+          <t>-8,19; 17,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 14,63</t>
+          <t>-11,99; 25,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 30,9</t>
+          <t>-25,65; 4,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-22,95; 14,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-17,25; 30,4</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 41,58</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 31,14</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>11,37</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 15,05</t>
+          <t>-6,56; 18,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 10,75</t>
+          <t>-7,63; 13,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 11,7</t>
+          <t>-9,38; 12,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 13,47</t>
+          <t>-11,9; 12,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 26,01</t>
+          <t>-13,89; 10,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 18,08</t>
+          <t>-1,44; 27,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 20,76</t>
+          <t>-8,88; 32,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 26,51</t>
+          <t>-10,66; 23,61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,99; 22,57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-18,19; 25,07</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-19,94; 18,79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 73,08</t>
         </is>
       </c>
     </row>
@@ -820,12 +932,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,27 +947,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,64%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,86%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 5,33</t>
+          <t>-9,46; 9,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 5,88</t>
+          <t>-10,25; 5,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,17; -0,51</t>
+          <t>-15,34; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 7,97</t>
+          <t>-10,36; 8,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 8,54</t>
+          <t>-12,85; 7,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 9,38</t>
+          <t>-12,73; 5,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -0,76</t>
+          <t>-13,61; 16,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 14,15</t>
+          <t>-14,07; 8,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-20,45; 0,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-15,84; 15,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-19,65; 13,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 10,19</t>
         </is>
       </c>
     </row>
@@ -920,17 +1072,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,22 +1092,42 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,1%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-6,56%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-11,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>-5,15%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-6,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 11,06</t>
+          <t>-6,62; 10,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 2,92</t>
+          <t>-11,72; 3,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 0,17</t>
+          <t>-14,29; 0,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 6,53</t>
+          <t>-13,19; 7,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 19,34</t>
+          <t>-9,8; 8,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 4,97</t>
+          <t>-12,53; 5,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 0,23</t>
+          <t>-9,69; 19,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 12,23</t>
+          <t>-17,26; 5,93</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-22,51; 1,58</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-20,11; 13,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-16,17; 17,83</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,67; 9,72</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,97</t>
+          <t>-12,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>-11,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>-8,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-17,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-9,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>-21,24%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-18,56%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 4,19</t>
+          <t>-16,11; 3,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,19; -3,71</t>
+          <t>-20,26; -3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 2,28</t>
+          <t>-14,67; 2,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,97; -2,06</t>
+          <t>-21,35; -2,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 6,73</t>
+          <t>-9,25; 10,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,41; -5,73</t>
+          <t>-21,15; -1,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 3,86</t>
+          <t>-22,28; 5,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,33; -4,06</t>
+          <t>-27,46; -4,8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-21,45; 5,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-34,89; -4,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-15,81; 23,41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-31,02; -2,18</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,41</t>
+          <t>-9,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>-7,34</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>-17,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,07%</t>
+          <t>-6,74%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-15,1%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,59%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-11,97%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 1,96</t>
+          <t>-21,43; 0,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 5,27</t>
+          <t>-14,68; 5,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 12,21</t>
+          <t>-9,7; 10,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 1,91</t>
+          <t>-21,3; 3,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 3,56</t>
+          <t>-20,98; 4,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 10,05</t>
+          <t>-20,81; 5,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 22,72</t>
+          <t>-33,35; 1,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 2,98</t>
+          <t>-22,14; 11,21</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 19,75</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-32,05; 6,85</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-33,21; 7,92</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-31,24; 10,66</t>
         </is>
       </c>
     </row>
@@ -1220,17 +1492,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1240,22 +1512,42 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>-7,27%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>-7,1%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,42%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 2,0</t>
+          <t>-5,9; 2,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,77</t>
+          <t>-8,33; -0,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -0,56</t>
+          <t>-8,38; -0,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 0,49</t>
+          <t>-8,64; 0,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 3,14</t>
+          <t>-5,34; 3,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,17</t>
+          <t>-7,34; 2,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -0,9</t>
+          <t>-8,82; 4,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 0,8</t>
+          <t>-12,33; -1,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; -0,43</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 0,85</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,93; 6,77</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-11,3; 4,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
